--- a/src/main/resources/Files/New Microsoft Excel Worksheet.xlsx
+++ b/src/main/resources/Files/New Microsoft Excel Worksheet.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>Navneet</t>
+  </si>
+  <si>
+    <t>nnnn</t>
   </si>
 </sst>
 </file>
@@ -358,17 +361,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Files/New Microsoft Excel Worksheet.xlsx
+++ b/src/main/resources/Files/New Microsoft Excel Worksheet.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Navneet</t>
   </si>
   <si>
     <t>nnnn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ,zc,cn,zc,zxcm</t>
   </si>
 </sst>
 </file>
@@ -361,15 +364,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -377,9 +380,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Files/New Microsoft Excel Worksheet.xlsx
+++ b/src/main/resources/Files/New Microsoft Excel Worksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Navneet</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t xml:space="preserve"> ,zc,cn,zc,zxcm</t>
+  </si>
+  <si>
+    <t>sdjfksdm</t>
   </si>
 </sst>
 </file>
@@ -364,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,6 +393,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/Files/New Microsoft Excel Worksheet.xlsx
+++ b/src/main/resources/Files/New Microsoft Excel Worksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Navneet</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t xml:space="preserve"> ,zc,cn,zc,zxcm</t>
-  </si>
-  <si>
-    <t>sdjfksdm</t>
   </si>
 </sst>
 </file>
@@ -367,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,11 +390,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J18" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
